--- a/veriler.xlsx
+++ b/veriler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188B9A1-80CD-4C18-8682-16C53E77DDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB3E87-2D17-4EC1-B44B-68C3B7A7CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="279">
   <si>
     <t>Engelli Hizmetleri Şube Müdürlüğü</t>
   </si>
@@ -250,7 +250,7 @@
     <t>Genç Üniversiteli Eğitim Desteği</t>
   </si>
   <si>
-    <t>Kendisi, Ailesi veya Yakını İstanbul</t>
+    <t>Kendisi Ailesi veya Yakını İstanbul</t>
   </si>
   <si>
     <t>Ön Lisans ve Lisans 30 Altı</t>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>İstanbul</t>
-  </si>
-  <si>
-    <t>Kendisi Ailesi veya Yakını İstanbul</t>
   </si>
   <si>
     <t>Halksüt Desteği</t>
@@ -1139,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z328"/>
+  <dimension ref="A1:Z326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2889,7 +2886,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>14</v>
@@ -2906,7 +2903,7 @@
         <v>32</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -2935,7 +2932,7 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -2964,7 +2961,7 @@
         <v>32</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -2976,7 +2973,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>14</v>
@@ -2993,7 +2990,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>41</v>
@@ -3022,7 +3019,7 @@
         <v>32</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>41</v>
@@ -3051,7 +3048,7 @@
         <v>32</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>41</v>
@@ -3063,7 +3060,7 @@
         <v>62</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>14</v>
@@ -3080,7 +3077,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>41</v>
@@ -3092,7 +3089,7 @@
         <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>14</v>
@@ -3109,7 +3106,7 @@
         <v>32</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>41</v>
@@ -3121,7 +3118,7 @@
         <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>14</v>
@@ -3138,7 +3135,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>41</v>
@@ -3150,7 +3147,7 @@
         <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>14</v>
@@ -3167,28 +3164,28 @@
         <v>32</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3196,28 +3193,28 @@
         <v>32</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3225,7 +3222,7 @@
         <v>32</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>50</v>
@@ -3234,13 +3231,13 @@
         <v>23</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>48</v>
@@ -3254,25 +3251,25 @@
         <v>32</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>54</v>
@@ -3283,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>50</v>
@@ -3292,13 +3289,13 @@
         <v>57</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>53</v>
@@ -3312,22 +3309,22 @@
         <v>32</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>53</v>
@@ -3341,16 +3338,16 @@
         <v>32</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>125</v>
@@ -3362,7 +3359,7 @@
         <v>53</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3370,57 +3367,57 @@
         <v>32</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3428,19 +3425,19 @@
         <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>14</v>
@@ -3457,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>14</v>
@@ -3486,19 +3483,19 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>14</v>
@@ -3515,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>14</v>
@@ -3544,19 +3541,19 @@
         <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>14</v>
@@ -3573,19 +3570,19 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>14</v>
@@ -3602,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>10</v>
@@ -3611,9 +3608,9 @@
         <v>35</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -3631,19 +3628,19 @@
         <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>133</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>14</v>
@@ -3660,19 +3657,19 @@
         <v>0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>135</v>
+      <c r="D87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>14</v>
@@ -3689,19 +3686,19 @@
         <v>0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>14</v>
@@ -3718,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>14</v>
@@ -3747,19 +3744,19 @@
         <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>14</v>
@@ -3776,19 +3773,19 @@
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>14</v>
@@ -3805,19 +3802,19 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>14</v>
@@ -3834,19 +3831,19 @@
         <v>0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>14</v>
@@ -3863,19 +3860,19 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>14</v>
@@ -3898,13 +3895,13 @@
         <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>14</v>
@@ -3921,19 +3918,19 @@
         <v>0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>14</v>
@@ -3950,19 +3947,19 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>14</v>
@@ -3979,19 +3976,19 @@
         <v>0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>14</v>
@@ -4008,19 +4005,19 @@
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>14</v>
@@ -4037,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>41</v>
@@ -4046,10 +4043,10 @@
         <v>42</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>14</v>
@@ -4066,19 +4063,19 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>14</v>
@@ -4095,16 +4092,16 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>144</v>
@@ -4124,28 +4121,28 @@
         <v>0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -4153,28 +4150,28 @@
         <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -4182,28 +4179,28 @@
         <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -4211,28 +4208,28 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -4240,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>50</v>
@@ -4248,20 +4245,20 @@
       <c r="D107" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="E107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="I107" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -4269,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>50</v>
@@ -4278,19 +4275,19 @@
         <v>57</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -4298,28 +4295,28 @@
         <v>0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -4327,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>50</v>
@@ -4339,16 +4336,16 @@
         <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -4356,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>50</v>
@@ -4368,16 +4365,16 @@
         <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -4385,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>50</v>
@@ -4397,16 +4394,16 @@
         <v>48</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -4414,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>50</v>
@@ -4429,13 +4426,13 @@
         <v>160</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -4443,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>50</v>
@@ -4455,16 +4452,16 @@
         <v>48</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -4472,28 +4469,28 @@
         <v>0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -4501,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>50</v>
@@ -4513,16 +4510,16 @@
         <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -4530,28 +4527,28 @@
         <v>0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="I117" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -4559,28 +4556,28 @@
         <v>0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -4588,28 +4585,28 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>172</v>
+        <v>18</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -4617,19 +4614,19 @@
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>14</v>
@@ -4646,19 +4643,19 @@
         <v>0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>14</v>
@@ -4681,13 +4678,13 @@
         <v>10</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>14</v>
@@ -4704,19 +4701,19 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>14</v>
@@ -4733,19 +4730,19 @@
         <v>0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>14</v>
@@ -4762,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>14</v>
@@ -4791,19 +4788,19 @@
         <v>0</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>14</v>
@@ -4820,16 +4817,16 @@
         <v>0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>144</v>
@@ -4849,28 +4846,28 @@
         <v>0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -4878,28 +4875,28 @@
         <v>0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4907,28 +4904,28 @@
         <v>0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4936,28 +4933,28 @@
         <v>0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="G131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -4965,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>50</v>
@@ -4973,20 +4970,20 @@
       <c r="D132" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="E132" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -4994,28 +4991,28 @@
         <v>0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="I133" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -5023,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>50</v>
@@ -5035,16 +5032,16 @@
         <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -5052,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>50</v>
@@ -5064,16 +5061,16 @@
         <v>48</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -5081,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>50</v>
@@ -5093,16 +5090,16 @@
         <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -5110,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>50</v>
@@ -5125,13 +5122,13 @@
         <v>160</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -5139,28 +5136,28 @@
         <v>0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -5168,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>50</v>
@@ -5180,16 +5177,16 @@
         <v>67</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -5197,28 +5194,28 @@
         <v>0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="I140" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -5226,28 +5223,28 @@
         <v>0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I141" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -5255,28 +5252,28 @@
         <v>0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -5284,28 +5281,28 @@
         <v>0</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="G143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="I143" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -5313,28 +5310,28 @@
         <v>0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -5342,19 +5339,19 @@
         <v>0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>14</v>
@@ -5371,19 +5368,19 @@
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>14</v>
@@ -5400,19 +5397,19 @@
         <v>0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>14</v>
@@ -5429,19 +5426,19 @@
         <v>0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>14</v>
@@ -5458,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>41</v>
@@ -5467,10 +5464,10 @@
         <v>42</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>14</v>
@@ -5487,19 +5484,19 @@
         <v>0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>14</v>
@@ -5516,16 +5513,16 @@
         <v>0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>144</v>
@@ -5545,19 +5542,19 @@
         <v>0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>14</v>
@@ -5574,28 +5571,28 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -5603,28 +5600,28 @@
         <v>0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="I154" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -5632,28 +5629,28 @@
         <v>0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I155" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -5661,28 +5658,28 @@
         <v>0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="G156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="I156" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -5690,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>50</v>
@@ -5698,20 +5695,20 @@
       <c r="D157" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F157" s="3" t="s">
+      <c r="E157" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="I157" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -5719,28 +5716,28 @@
         <v>0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="I158" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -5748,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>50</v>
@@ -5760,16 +5757,16 @@
         <v>48</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I159" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -5777,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>50</v>
@@ -5789,16 +5786,16 @@
         <v>48</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I160" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -5806,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>50</v>
@@ -5818,16 +5815,16 @@
         <v>48</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H161" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -5835,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>50</v>
@@ -5850,13 +5847,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H162" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -5864,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>50</v>
@@ -5876,16 +5873,16 @@
         <v>48</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I163" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -5893,28 +5890,28 @@
         <v>0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -5922,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>50</v>
@@ -5934,16 +5931,16 @@
         <v>67</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I165" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -5951,28 +5948,28 @@
         <v>0</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H166" s="2" t="s">
+      <c r="I166" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -5980,28 +5977,28 @@
         <v>0</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I167" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6009,28 +6006,28 @@
         <v>0</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I168" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -6038,28 +6035,28 @@
         <v>0</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>153</v>
+        <v>18</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -6067,19 +6064,19 @@
         <v>0</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>14</v>
@@ -6096,19 +6093,19 @@
         <v>0</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>14</v>
@@ -6122,7 +6119,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>179</v>
@@ -6131,13 +6128,13 @@
         <v>10</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>14</v>
@@ -6154,19 +6151,19 @@
         <v>32</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>14</v>
@@ -6183,19 +6180,19 @@
         <v>32</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>14</v>
@@ -6212,19 +6209,19 @@
         <v>32</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>181</v>
+        <v>43</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>14</v>
@@ -6241,7 +6238,7 @@
         <v>32</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>41</v>
@@ -6250,10 +6247,10 @@
         <v>42</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>14</v>
@@ -6270,19 +6267,19 @@
         <v>32</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>14</v>
@@ -6299,7 +6296,7 @@
         <v>32</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>41</v>
@@ -6308,7 +6305,7 @@
         <v>47</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>110</v>
@@ -6328,7 +6325,7 @@
         <v>32</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>41</v>
@@ -6337,7 +6334,7 @@
         <v>47</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>111</v>
@@ -6357,16 +6354,16 @@
         <v>32</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>112</v>
@@ -6386,19 +6383,19 @@
         <v>32</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>14</v>
@@ -6415,16 +6412,16 @@
         <v>32</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>182</v>
@@ -6444,28 +6441,28 @@
         <v>32</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -6473,25 +6470,25 @@
         <v>32</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>54</v>
@@ -6502,28 +6499,28 @@
         <v>32</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -6531,25 +6528,25 @@
         <v>32</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>54</v>
@@ -6560,25 +6557,25 @@
         <v>32</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>54</v>
@@ -6589,19 +6586,19 @@
         <v>32</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>55</v>
@@ -6618,28 +6615,28 @@
         <v>32</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -6647,22 +6644,22 @@
         <v>32</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>53</v>
@@ -6673,60 +6670,60 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>126</v>
+        <v>18</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
@@ -6734,19 +6731,19 @@
         <v>0</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>14</v>
@@ -6763,19 +6760,19 @@
         <v>0</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>14</v>
@@ -6792,19 +6789,19 @@
         <v>0</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>14</v>
@@ -6821,19 +6818,19 @@
         <v>0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>185</v>
+        <v>18</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>14</v>
@@ -6850,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
@@ -6859,10 +6856,10 @@
         <v>23</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>14</v>
@@ -6879,19 +6876,19 @@
         <v>0</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>14</v>
@@ -6905,7 +6902,7 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>187</v>
@@ -6914,13 +6911,13 @@
         <v>10</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>14</v>
@@ -6934,7 +6931,7 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>187</v>
@@ -6948,7 +6945,7 @@
       <c r="E200" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F200" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G200" s="2" t="s">
@@ -6966,19 +6963,19 @@
         <v>32</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>14</v>
@@ -6995,19 +6992,19 @@
         <v>32</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>14</v>
@@ -7024,19 +7021,19 @@
         <v>32</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>14</v>
@@ -7053,7 +7050,7 @@
         <v>32</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -7062,10 +7059,10 @@
         <v>29</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>14</v>
@@ -7082,20 +7079,20 @@
         <v>32</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G205" s="2" t="s">
         <v>14</v>
       </c>
@@ -7107,52 +7104,69 @@
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A206" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+      <c r="X206" s="4"/>
+      <c r="Y206" s="4"/>
+      <c r="Z206" s="4"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>189</v>
+        <v>18</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>14</v>
@@ -7165,69 +7179,52 @@
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A208" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F208" s="5" t="s">
+      <c r="A208" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G208" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I208" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="4"/>
-      <c r="W208" s="4"/>
-      <c r="X208" s="4"/>
-      <c r="Y208" s="4"/>
-      <c r="Z208" s="4"/>
+      <c r="C208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>14</v>
@@ -7244,19 +7241,19 @@
         <v>32</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>14</v>
@@ -7273,19 +7270,19 @@
         <v>32</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>14</v>
@@ -7302,7 +7299,7 @@
         <v>32</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>41</v>
@@ -7331,19 +7328,19 @@
         <v>32</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>14</v>
@@ -7360,19 +7357,19 @@
         <v>32</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>14</v>
@@ -7389,7 +7386,7 @@
         <v>32</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>41</v>
@@ -7401,7 +7398,7 @@
         <v>62</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>14</v>
@@ -7418,19 +7415,19 @@
         <v>32</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>14</v>
@@ -7447,19 +7444,19 @@
         <v>32</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>14</v>
@@ -7476,28 +7473,28 @@
         <v>32</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7505,28 +7502,28 @@
         <v>32</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -7534,25 +7531,25 @@
         <v>32</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>54</v>
@@ -7563,28 +7560,28 @@
         <v>32</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -7592,25 +7589,25 @@
         <v>32</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>54</v>
@@ -7621,25 +7618,25 @@
         <v>32</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>54</v>
@@ -7650,19 +7647,19 @@
         <v>32</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>55</v>
@@ -7679,28 +7676,28 @@
         <v>32</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -7708,22 +7705,22 @@
         <v>32</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>53</v>
@@ -7734,60 +7731,60 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>126</v>
+        <v>18</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -7795,19 +7792,19 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>14</v>
@@ -7830,13 +7827,13 @@
         <v>10</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>14</v>
@@ -7882,19 +7879,19 @@
         <v>0</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>14</v>
@@ -7911,19 +7908,19 @@
         <v>0</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>14</v>
@@ -7940,19 +7937,19 @@
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>14</v>
@@ -7969,19 +7966,19 @@
         <v>0</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>14</v>
@@ -7998,19 +7995,19 @@
         <v>0</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>14</v>
@@ -8027,19 +8024,19 @@
         <v>0</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>14</v>
@@ -8056,19 +8053,19 @@
         <v>0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>14</v>
@@ -8085,19 +8082,19 @@
         <v>0</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>14</v>
@@ -8114,19 +8111,19 @@
         <v>0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>196</v>
+        <v>18</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>14</v>
@@ -8143,19 +8140,19 @@
         <v>0</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>14</v>
@@ -8172,19 +8169,19 @@
         <v>0</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>14</v>
@@ -8207,13 +8204,13 @@
         <v>10</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>14</v>
@@ -8236,13 +8233,13 @@
         <v>10</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>14</v>
@@ -8259,19 +8256,19 @@
         <v>0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>14</v>
@@ -8294,13 +8291,13 @@
         <v>10</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>14</v>
@@ -8323,13 +8320,13 @@
         <v>10</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>14</v>
@@ -8346,19 +8343,19 @@
         <v>0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>14</v>
@@ -8381,13 +8378,13 @@
         <v>10</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>14</v>
@@ -8410,13 +8407,13 @@
         <v>10</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>14</v>
@@ -8433,19 +8430,19 @@
         <v>0</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>14</v>
@@ -8462,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>14</v>
@@ -8491,19 +8488,19 @@
         <v>0</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>198</v>
+        <v>18</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>14</v>
@@ -8520,19 +8517,19 @@
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>14</v>
@@ -8549,19 +8546,19 @@
         <v>0</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>14</v>
@@ -8584,13 +8581,13 @@
         <v>10</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>14</v>
@@ -8613,13 +8610,13 @@
         <v>10</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>14</v>
@@ -8636,19 +8633,19 @@
         <v>0</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>14</v>
@@ -8671,13 +8668,13 @@
         <v>10</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>14</v>
@@ -8700,13 +8697,13 @@
         <v>10</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>14</v>
@@ -8723,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>19</v>
+      <c r="D261" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>14</v>
@@ -8752,19 +8749,19 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>14</v>
@@ -8781,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>135</v>
+        <v>41</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>14</v>
@@ -8810,19 +8807,19 @@
         <v>0</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>14</v>
@@ -8839,16 +8836,16 @@
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>144</v>
@@ -8868,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>41</v>
@@ -8877,10 +8874,10 @@
         <v>42</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>14</v>
@@ -8897,28 +8894,28 @@
         <v>0</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F267" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G267" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H267" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I267" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -8926,28 +8923,28 @@
         <v>0</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>183</v>
+        <v>118</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I268" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -8955,28 +8952,28 @@
         <v>0</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G269" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H269" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H269" s="2" t="s">
+      <c r="I269" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -8984,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>50</v>
@@ -8992,20 +8989,20 @@
       <c r="D270" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>120</v>
+      <c r="E270" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="G270" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H270" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H270" s="2" t="s">
+      <c r="I270" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -9013,28 +9010,28 @@
         <v>0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H271" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I271" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -9042,28 +9039,28 @@
         <v>0</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>151</v>
+        <v>47</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="G272" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H272" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H272" s="2" t="s">
+      <c r="I272" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -9071,28 +9068,28 @@
         <v>0</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="G273" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H273" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H273" s="2" t="s">
+      <c r="I273" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -9100,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>50</v>
@@ -9112,16 +9109,16 @@
         <v>48</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H274" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I274" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -9129,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>50</v>
@@ -9141,16 +9138,16 @@
         <v>48</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H275" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I275" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -9158,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>50</v>
@@ -9170,16 +9167,16 @@
         <v>48</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H276" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I276" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -9187,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>50</v>
@@ -9199,16 +9196,16 @@
         <v>48</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H277" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I277" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I277" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -9216,28 +9213,28 @@
         <v>0</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H278" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I278" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I278" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -9245,28 +9242,28 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="H279" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I279" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -9274,28 +9271,28 @@
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H280" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I280" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -9303,28 +9300,28 @@
         <v>0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G281" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H281" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H281" s="2" t="s">
+      <c r="I281" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I281" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -9332,28 +9329,28 @@
         <v>0</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="H282" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I282" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -9364,25 +9361,25 @@
         <v>206</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>172</v>
+        <v>18</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I283" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -9393,25 +9390,25 @@
         <v>206</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -9419,19 +9416,19 @@
         <v>0</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>14</v>
@@ -9454,13 +9451,13 @@
         <v>10</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>14</v>
@@ -9483,13 +9480,13 @@
         <v>10</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>14</v>
@@ -9506,19 +9503,19 @@
         <v>0</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>14</v>
@@ -9532,22 +9529,22 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>14</v>
@@ -9561,22 +9558,22 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>14</v>
@@ -9590,22 +9587,22 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>14</v>
@@ -9619,22 +9616,22 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="C292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F292" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>14</v>
@@ -9648,184 +9645,184 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C293" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I293" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C294" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="F294" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G294" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H294" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C295" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="H295" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I295" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I295" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C296" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>212</v>
       </c>
       <c r="H296" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I296" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I296" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C297" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>164</v>
+        <v>89</v>
+      </c>
+      <c r="G297" s="1">
+        <v>4</v>
       </c>
       <c r="H297" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I297" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I297" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C298" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H298" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I298" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I298" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>50</v>
@@ -9833,28 +9830,28 @@
       <c r="D299" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E299" s="1" t="s">
-        <v>150</v>
+      <c r="E299" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G299" s="1">
-        <v>4</v>
+        <v>216</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="H299" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I299" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>50</v>
@@ -9862,28 +9859,28 @@
       <c r="D300" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>214</v>
+      <c r="E300" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="H300" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I300" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I300" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>50</v>
@@ -9892,27 +9889,27 @@
         <v>57</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="H301" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I301" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I301" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>50</v>
@@ -9921,27 +9918,27 @@
         <v>57</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="H302" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I302" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I302" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>50</v>
@@ -9950,85 +9947,85 @@
         <v>57</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="H303" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I303" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I303" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C304" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H304" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I304" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I304" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C305" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G305" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H305" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H305" s="2" t="s">
+      <c r="I305" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I305" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>50</v>
@@ -10037,27 +10034,27 @@
         <v>35</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H306" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I306" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I306" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>50</v>
@@ -10066,27 +10063,27 @@
         <v>35</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="H307" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I307" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I307" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>50</v>
@@ -10095,85 +10092,85 @@
         <v>35</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="H308" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I308" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I308" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C309" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="H309" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I309" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I309" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C310" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="H310" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I310" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I310" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>50</v>
@@ -10185,24 +10182,24 @@
         <v>62</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H311" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I311" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I311" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>50</v>
@@ -10213,25 +10210,25 @@
       <c r="E312" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F312" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>159</v>
+      <c r="F312" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G312" s="1">
+        <v>25</v>
       </c>
       <c r="H312" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I312" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I312" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>50</v>
@@ -10243,24 +10240,24 @@
         <v>62</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="H313" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I313" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I313" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>50</v>
@@ -10271,25 +10268,25 @@
       <c r="E314" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F314" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G314" s="1">
-        <v>25</v>
+      <c r="F314" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="H314" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I314" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I314" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>50</v>
@@ -10301,24 +10298,24 @@
         <v>62</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H315" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I315" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I315" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>50</v>
@@ -10330,24 +10327,24 @@
         <v>62</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H316" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I316" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I316" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>50</v>
@@ -10359,24 +10356,24 @@
         <v>62</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G317" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H317" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H317" s="2" t="s">
+      <c r="I317" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I317" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>50</v>
@@ -10388,82 +10385,82 @@
         <v>62</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="H318" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I318" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I318" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C319" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="H319" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I319" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I319" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C320" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>242</v>
+        <v>43</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G320" s="1">
+        <v>3</v>
       </c>
       <c r="H320" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I320" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I320" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>50</v>
@@ -10472,27 +10469,27 @@
         <v>42</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H321" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I321" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I321" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>50</v>
@@ -10501,27 +10498,27 @@
         <v>42</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F322" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G322" s="1">
-        <v>3</v>
+      <c r="F322" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H322" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I322" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I322" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>50</v>
@@ -10530,164 +10527,106 @@
         <v>42</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="H323" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I323" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I323" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C324" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F324" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F324" s="1" t="s">
         <v>247</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="H324" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I324" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I324" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C325" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>243</v>
+        <v>96</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H325" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I325" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B326" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C326" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F326" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="F326" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="G326" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H326" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I326" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="I326" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G327" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H327" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I327" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G328" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H328" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -10701,7 +10640,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10711,33 +10650,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D2" s="2">
         <v>154</v>
@@ -10746,18 +10685,18 @@
         <v>435</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2">
         <v>451</v>
@@ -10766,18 +10705,18 @@
         <v>426</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="2">
         <v>751</v>
@@ -10786,18 +10725,18 @@
         <v>311</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="2">
         <v>750</v>
@@ -10806,18 +10745,18 @@
         <v>565</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D6" s="2">
         <v>1051</v>
@@ -10826,18 +10765,18 @@
         <v>420</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D7" s="2">
         <v>1390</v>
@@ -10846,18 +10785,18 @@
         <v>124</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="2">
         <v>1389</v>
@@ -10866,18 +10805,18 @@
         <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="2">
         <v>1390</v>
@@ -10886,18 +10825,18 @@
         <v>412</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="2">
         <v>1392</v>
@@ -10906,18 +10845,18 @@
         <v>562</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="2">
         <v>1393</v>
@@ -10926,7 +10865,7 @@
         <v>708</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/veriler.xlsx
+++ b/veriler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB3E87-2D17-4EC1-B44B-68C3B7A7CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A703F9-9312-404C-A6F8-70C4E1E0E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="280">
   <si>
     <t>Engelli Hizmetleri Şube Müdürlüğü</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>Uzman Görüşü</t>
+  </si>
+  <si>
+    <t>Müdürlük</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1142,7 @@
   <dimension ref="A1:Z326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1163,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
